--- a/semantic_validity_sample/Anon1Evaluation_semantic.xlsx
+++ b/semantic_validity_sample/Anon1Evaluation_semantic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Documents\GitHub\ArtGraphsLandscapeAnalysis\semantic_validity_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E076F2-3386-41D2-AE06-89F1B183E771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A527CB-3A75-463E-8260-0B0AB19A721D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="semantic_validity_arco" sheetId="10" r:id="rId1"/>
@@ -10694,15 +10694,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5D3DBC-BF51-49C6-ADC2-A8E901CC749B}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
     <col min="2" max="2" width="47.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.109375" style="2"/>
   </cols>
@@ -12443,7 +12443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F72E9AF-F001-4CEA-A5EE-71111A86B9F0}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -17633,7 +17633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DDE56C-B101-4A28-9053-AC08F0869FFF}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
